--- a/CashFlow/PINS_cashflow.xlsx
+++ b/CashFlow/PINS_cashflow.xlsx
@@ -340,19 +340,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>12391000.0</v>
+        <v>184000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>15721000.0</v>
+        <v>173000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>26446000.0</v>
+        <v>142757000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>26360000.0</v>
+        <v>98580000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>36527000.0</v>
+        <v>71914000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>31890000.0</v>
